--- a/doc/PWM freq.xlsx
+++ b/doc/PWM freq.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projekter\XboxController\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0246CCFF-75C9-4DA3-A4B1-3C2DDAA6B1A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8F46B9-B466-4FB2-96DD-A21AFEA804C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10065" yWindow="6690" windowWidth="19185" windowHeight="15105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6255" yWindow="6135" windowWidth="19185" windowHeight="15105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -96,9 +96,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,7 +435,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,7 +448,7 @@
       <c r="A1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1">
         <v>125000000</v>
       </c>
       <c r="C1" t="s">
@@ -460,17 +459,17 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1">
-        <v>125</v>
+      <c r="B2">
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <f>INT(B2)</f>
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -480,7 +479,7 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <f>INT((B2-B3)*16)</f>
         <v>0</v>
       </c>
@@ -492,21 +491,15 @@
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
+      <c r="B5">
+        <v>128</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <f>B1/B3/(B5+B4/16)</f>
         <v>3906.25</v>
       </c>

--- a/doc/PWM freq.xlsx
+++ b/doc/PWM freq.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projekter\XboxController\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8F46B9-B466-4FB2-96DD-A21AFEA804C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EABA50D-3A9B-4B10-9683-9079E6472CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6255" yWindow="6135" windowWidth="19185" windowHeight="15105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36105" yWindow="6870" windowWidth="19185" windowHeight="15105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -460,7 +460,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>250</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -469,7 +469,7 @@
       </c>
       <c r="B3">
         <f>INT(B2)</f>
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -492,7 +492,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>128</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -501,7 +501,7 @@
       </c>
       <c r="B8">
         <f>B1/B3/(B5+B4/16)</f>
-        <v>3906.25</v>
+        <v>1220.703125</v>
       </c>
     </row>
   </sheetData>
